--- a/Addresses.xlsx
+++ b/Addresses.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan_PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS4529\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3735F9-0537-41C2-BD45-F747B2D4F6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBC0470-971F-4CF2-9903-5A029DB85506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$4</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,32 +28,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Shop</t>
-  </si>
-  <si>
-    <t>Barber</t>
-  </si>
-  <si>
-    <t>Street food</t>
-  </si>
-  <si>
-    <t>AB10 3WZ</t>
-  </si>
-  <si>
-    <t>AB31 4DF</t>
-  </si>
-  <si>
-    <t>AB24 5AD</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Domicile</t>
+  </si>
+  <si>
+    <t>Home_Postcode</t>
+  </si>
+  <si>
+    <t>HA9 0WS</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>AB24 5QH</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>BT12 6LW</t>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -78,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -360,43 +378,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
-    <col min="2" max="3" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B4" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>